--- a/08.xlsx
+++ b/08.xlsx
@@ -128,6 +128,7 @@
     <col min="65" max="65" width="23.4375" customWidth="true"/>
     <col min="66" max="66" width="23.4375" customWidth="true"/>
     <col min="67" max="67" width="23.4375" customWidth="true"/>
+    <col min="68" max="68" width="23.4375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,25 +444,30 @@
       </c>
       <c r="BK1" t="inlineStr">
         <is>
+          <t>成本核算批量</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
           <t>利润中心</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>计划价格1</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>计划价格日期1</t>
         </is>
       </c>
-      <c r="BN1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>工厂特定物料状态</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>当前节点</t>
         </is>
@@ -720,22 +726,22 @@
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>213</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t/>
+          <t>134</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>346</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
@@ -750,7 +756,7 @@
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
@@ -775,30 +781,35 @@
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t/>
+          <t>134</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>300021</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>300010</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
+          <t>1346</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
           <t xml:space="preserve">          </t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BO2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -1057,22 +1068,22 @@
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t/>
+          <t>51</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>134</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
@@ -1087,7 +1098,7 @@
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>436</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
@@ -1112,30 +1123,35 @@
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t/>
+          <t>134</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>300021</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>300041</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
           <t xml:space="preserve">          </t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="BO3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -1274,7 +1290,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t/>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1394,22 +1410,22 @@
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t/>
+          <t>146</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t/>
+          <t>3000</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t/>
+          <t>6146</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t/>
+          <t>614</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -1424,12 +1440,12 @@
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t/>
+          <t>1346</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
@@ -1444,35 +1460,40 @@
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t/>
+          <t>Z00001</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t/>
+          <t>145</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t/>
+          <t>300043</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t/>
+          <t>1346</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t/>
+          <t xml:space="preserve">          </t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -1616,7 +1637,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t/>
+          <t>12334</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1810,6 +1831,11 @@
         </is>
       </c>
       <c r="BO5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -1923,17 +1949,17 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t/>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t/>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>支</t>
+          <t/>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1948,12 +1974,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t/>
+          <t>04</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t/>
+          <t>12312</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -2147,6 +2173,11 @@
         </is>
       </c>
       <c r="BO6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -2260,17 +2291,17 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Q14</t>
+          <t/>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>456</t>
+          <t/>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>张</t>
+          <t/>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2285,12 +2316,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t/>
+          <t>04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t/>
+          <t>12412</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2484,6 +2515,11 @@
         </is>
       </c>
       <c r="BO7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -2547,17 +2583,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t/>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t/>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t/>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2567,22 +2603,22 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t/>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Z2</t>
+          <t/>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>NORM</t>
+          <t/>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2597,27 +2633,27 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t/>
+          <t>Q12</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t/>
+          <t>123</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t/>
+          <t>TO</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t/>
+          <t>123</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t/>
+          <t>347</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2821,6 +2857,11 @@
         </is>
       </c>
       <c r="BO8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -2884,17 +2925,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t/>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t/>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t/>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2904,22 +2945,22 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t/>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t/>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Z2</t>
+          <t/>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>ZORM</t>
+          <t/>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2934,27 +2975,27 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t/>
+          <t>Q15</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t/>
+          <t>123</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t/>
+          <t>G</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t/>
+          <t>15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t/>
+          <t>541</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3158,6 +3199,11 @@
         </is>
       </c>
       <c r="BO9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -3271,27 +3317,27 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t/>
+          <t>Q16</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t/>
+          <t>123</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t/>
+          <t>GAL</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t/>
+          <t>167</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t/>
+          <t>1351</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -3306,12 +3352,12 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>库存地点</t>
+          <t/>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>库存地点</t>
+          <t/>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -3366,12 +3412,12 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>生产仓储地点</t>
+          <t/>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>生产仓储地点</t>
+          <t/>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -3495,6 +3541,11 @@
         </is>
       </c>
       <c r="BO10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -3558,12 +3609,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t/>
+          <t>3000</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t/>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3578,22 +3629,22 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t/>
+          <t>3000</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t/>
+          <t>0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t/>
+          <t>Y1</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t/>
+          <t>ZRVM</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -3643,12 +3694,12 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>库存点</t>
+          <t/>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>库存点</t>
+          <t/>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -3703,12 +3754,12 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>生产仓储地点</t>
+          <t/>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>生产仓储地点</t>
+          <t/>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3832,6 +3883,11 @@
         </is>
       </c>
       <c r="BO11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -3895,12 +3951,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t/>
+          <t>3000</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t/>
+          <t>20</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3915,22 +3971,22 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t/>
+          <t>3000</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t/>
+          <t>Z2</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t/>
+          <t>ZRVM</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -4080,12 +4136,12 @@
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t/>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>004</t>
+          <t/>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -4169,6 +4225,11 @@
         </is>
       </c>
       <c r="BO12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -4232,12 +4293,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t/>
+          <t>3000</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t/>
+          <t>20</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4252,22 +4313,22 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t/>
+          <t>3000</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t/>
+          <t>Z4</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t/>
+          <t>NORM</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -4417,12 +4478,12 @@
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t/>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>007</t>
+          <t/>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -4506,6 +4567,11 @@
         </is>
       </c>
       <c r="BO13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -4654,12 +4720,12 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t/>
+          <t>库存地点1</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t/>
+          <t>123</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -4669,22 +4735,22 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>PD物料需求计划</t>
+          <t/>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>A04</t>
+          <t/>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>EX</t>
+          <t/>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t/>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -4694,12 +4760,12 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t/>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t/>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -4709,17 +4775,17 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>存在</t>
+          <t/>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t/>
+          <t>生产仓储地点</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t/>
+          <t>外部仓储地点</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -4734,12 +4800,12 @@
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t/>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>02</t>
+          <t/>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
@@ -4843,6 +4909,11 @@
         </is>
       </c>
       <c r="BO14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -4991,12 +5062,12 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t/>
+          <t>库存地点2</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t/>
+          <t>12</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -5006,22 +5077,22 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>PD物料需求计划</t>
+          <t/>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>A05</t>
+          <t/>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>EX</t>
+          <t/>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>124</t>
+          <t/>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -5031,12 +5102,12 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t/>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t/>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -5046,17 +5117,17 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>空</t>
+          <t/>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t/>
+          <t>生产仓储地点</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t/>
+          <t>外部仓储地点</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -5071,12 +5142,12 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t/>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>02</t>
+          <t/>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
@@ -5180,6 +5251,11 @@
         </is>
       </c>
       <c r="BO15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -5188,27 +5264,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Z013</t>
+          <t/>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t/>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0123456789336</t>
+          <t/>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ceshi666</t>
+          <t/>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t/>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5218,12 +5294,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>012345</t>
+          <t/>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>012345</t>
+          <t/>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5233,7 +5309,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>c92，849</t>
+          <t/>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -5328,12 +5404,12 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t/>
+          <t>库存地点3</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t/>
+          <t>1341</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -5388,12 +5464,12 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t/>
+          <t>生产仓储地点</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t/>
+          <t>外部仓储地点</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -5517,6 +5593,11 @@
         </is>
       </c>
       <c r="BO16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
@@ -5525,27 +5606,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Z014</t>
+          <t/>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t/>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0123456789456</t>
+          <t/>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ceshi555</t>
+          <t/>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t/>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -5555,12 +5636,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>012345</t>
+          <t/>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>012345</t>
+          <t/>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -5570,7 +5651,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>v56，362</t>
+          <t/>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -5765,12 +5846,12 @@
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t/>
+          <t>000001</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t/>
+          <t>003</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -5854,79 +5935,2821 @@
         </is>
       </c>
       <c r="BO17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
         <is>
           <t>9-归档</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
-      <c r="BC19"/>
-      <c r="BD19"/>
-      <c r="BE19"/>
-      <c r="BF19"/>
-      <c r="BG19"/>
-      <c r="BH19"/>
-      <c r="BI19"/>
-      <c r="BJ19"/>
-      <c r="BK19"/>
-      <c r="BL19"/>
-      <c r="BM19"/>
-      <c r="BN19"/>
-      <c r="BO19"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>PD物料需求计划</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>存在</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>1 独立</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>PD物料需求计划</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>WB</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>存在</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>2 集中</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>PD物料需求计划</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>DK1</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>MB</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>存在</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>1 独立</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Z014</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0123456789356</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ceshi999</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>G234，151</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Z015</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0123456789369</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ceshi888</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>B324，41</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Z010</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0123456789152</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ceshi777</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>V132，1555</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>9-归档</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/08.xlsx
+++ b/08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF513BC7-A3D1-46EF-A49B-777FBA78B9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E57E65-C72D-4495-8C72-6DB631D6A658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="173">
   <si>
     <t>物料类型</t>
   </si>
@@ -497,6 +497,49 @@
   </si>
   <si>
     <t>V132，1555</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>300023</t>
+  </si>
+  <si>
+    <t>10-归档</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>ZORM</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>0123456789363</t>
+  </si>
+  <si>
+    <t>不锈钢直通转接头</t>
+  </si>
+  <si>
+    <t>，5*20</t>
+  </si>
+  <si>
+    <t>流程标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料业务数据维护申请-2023-06-25 15:08:16</t>
+  </si>
+  <si>
+    <t>物料业务数据维护申请-2023-06-27 15:08:16</t>
   </si>
 </sst>
 </file>
@@ -859,18 +902,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH37" workbookViewId="0">
-      <selection activeCell="BP44" sqref="BP44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BP23" sqref="BP23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="68" width="23.5" customWidth="1"/>
+    <col min="1" max="68" width="23.44140625" customWidth="1"/>
+    <col min="69" max="69" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,8 +1119,11 @@
       <c r="BP1" t="s">
         <v>67</v>
       </c>
+      <c r="BQ1" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1281,8 +1328,11 @@
       <c r="BP2" t="s">
         <v>81</v>
       </c>
+      <c r="BQ2" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1487,8 +1537,11 @@
       <c r="BP3" t="s">
         <v>81</v>
       </c>
+      <c r="BQ3" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1693,8 +1746,11 @@
       <c r="BP4" t="s">
         <v>81</v>
       </c>
+      <c r="BQ4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1899,8 +1955,11 @@
       <c r="BP5" t="s">
         <v>81</v>
       </c>
+      <c r="BQ5" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -2105,8 +2164,11 @@
       <c r="BP6" t="s">
         <v>81</v>
       </c>
+      <c r="BQ6" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2311,8 +2373,11 @@
       <c r="BP7" t="s">
         <v>81</v>
       </c>
+      <c r="BQ7" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2517,8 +2582,11 @@
       <c r="BP8" t="s">
         <v>81</v>
       </c>
+      <c r="BQ8" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2723,8 +2791,11 @@
       <c r="BP9" t="s">
         <v>81</v>
       </c>
+      <c r="BQ9" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2929,8 +3000,11 @@
       <c r="BP10" t="s">
         <v>81</v>
       </c>
+      <c r="BQ10" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3135,8 +3209,11 @@
       <c r="BP11" t="s">
         <v>81</v>
       </c>
+      <c r="BQ11" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3341,8 +3418,11 @@
       <c r="BP12" t="s">
         <v>81</v>
       </c>
+      <c r="BQ12" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3547,8 +3627,11 @@
       <c r="BP13" t="s">
         <v>81</v>
       </c>
+      <c r="BQ13" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -3753,8 +3836,11 @@
       <c r="BP14" t="s">
         <v>81</v>
       </c>
+      <c r="BQ14" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -3959,8 +4045,11 @@
       <c r="BP15" t="s">
         <v>81</v>
       </c>
+      <c r="BQ15" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -4165,8 +4254,11 @@
       <c r="BP16" t="s">
         <v>81</v>
       </c>
+      <c r="BQ16" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4371,8 +4463,11 @@
       <c r="BP17" t="s">
         <v>81</v>
       </c>
+      <c r="BQ17" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -4577,8 +4672,11 @@
       <c r="BP18" t="s">
         <v>81</v>
       </c>
+      <c r="BQ18" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -4783,8 +4881,11 @@
       <c r="BP19" t="s">
         <v>81</v>
       </c>
+      <c r="BQ19" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -4989,8 +5090,11 @@
       <c r="BP20" t="s">
         <v>81</v>
       </c>
+      <c r="BQ20" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -5195,8 +5299,11 @@
       <c r="BP21" t="s">
         <v>81</v>
       </c>
+      <c r="BQ21" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -5401,8 +5508,11 @@
       <c r="BP22" t="s">
         <v>81</v>
       </c>
+      <c r="BQ22" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -5607,8 +5717,11 @@
       <c r="BP23" t="s">
         <v>81</v>
       </c>
+      <c r="BQ23" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -5813,8 +5926,11 @@
       <c r="BP24" t="s">
         <v>81</v>
       </c>
+      <c r="BQ24" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -6018,6 +6134,1681 @@
       </c>
       <c r="BP25" t="s">
         <v>81</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" t="s">
+        <v>68</v>
+      </c>
+      <c r="T26" t="s">
+        <v>68</v>
+      </c>
+      <c r="U26" t="s">
+        <v>68</v>
+      </c>
+      <c r="V26" t="s">
+        <v>68</v>
+      </c>
+      <c r="W26" t="s">
+        <v>68</v>
+      </c>
+      <c r="X26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>68</v>
+      </c>
+      <c r="R27" t="s">
+        <v>68</v>
+      </c>
+      <c r="S27" t="s">
+        <v>68</v>
+      </c>
+      <c r="T27" t="s">
+        <v>68</v>
+      </c>
+      <c r="U27" t="s">
+        <v>68</v>
+      </c>
+      <c r="V27" t="s">
+        <v>68</v>
+      </c>
+      <c r="W27" t="s">
+        <v>68</v>
+      </c>
+      <c r="X27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" t="s">
+        <v>68</v>
+      </c>
+      <c r="T28" t="s">
+        <v>68</v>
+      </c>
+      <c r="U28" t="s">
+        <v>68</v>
+      </c>
+      <c r="V28" t="s">
+        <v>163</v>
+      </c>
+      <c r="W28" t="s">
+        <v>68</v>
+      </c>
+      <c r="X28" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S29" t="s">
+        <v>165</v>
+      </c>
+      <c r="T29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U29" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" t="s">
+        <v>68</v>
+      </c>
+      <c r="W29" t="s">
+        <v>68</v>
+      </c>
+      <c r="X29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" t="s">
+        <v>68</v>
+      </c>
+      <c r="T30" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" t="s">
+        <v>68</v>
+      </c>
+      <c r="V30" t="s">
+        <v>68</v>
+      </c>
+      <c r="W30" t="s">
+        <v>68</v>
+      </c>
+      <c r="X30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" t="s">
+        <v>68</v>
+      </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>68</v>
+      </c>
+      <c r="R31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" t="s">
+        <v>68</v>
+      </c>
+      <c r="T31" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" t="s">
+        <v>68</v>
+      </c>
+      <c r="V31" t="s">
+        <v>68</v>
+      </c>
+      <c r="W31" t="s">
+        <v>68</v>
+      </c>
+      <c r="X31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>68</v>
+      </c>
+      <c r="R32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S32" t="s">
+        <v>68</v>
+      </c>
+      <c r="T32" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" t="s">
+        <v>68</v>
+      </c>
+      <c r="V32" t="s">
+        <v>68</v>
+      </c>
+      <c r="W32" t="s">
+        <v>68</v>
+      </c>
+      <c r="X32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>68</v>
+      </c>
+      <c r="R33" t="s">
+        <v>68</v>
+      </c>
+      <c r="S33" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" t="s">
+        <v>68</v>
+      </c>
+      <c r="V33" t="s">
+        <v>68</v>
+      </c>
+      <c r="W33" t="s">
+        <v>68</v>
+      </c>
+      <c r="X33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
